--- a/Running projects/BAHL 12 floor Centrepoint Karachi/HVAC BOQ/HVAC (05% Discounted BOQ).xlsx
+++ b/Running projects/BAHL 12 floor Centrepoint Karachi/HVAC BOQ/HVAC (05% Discounted BOQ).xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAHL 12 floor Centrepoint Karachi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAHL 12 floor Centrepoint Karachi\HVAC BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC194ACA-ACCC-4421-8236-84A43EECA0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFD6799-2ECD-42BB-BA7F-89D0A98D60D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC" sheetId="1" r:id="rId1"/>
+    <sheet name="Fire" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Fire!$A$1:$J$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$J$94</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Fire!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="149">
   <si>
     <t>Bill of Quantities</t>
   </si>
@@ -466,6 +469,185 @@
   <si>
     <t>Testing,  balancing  and commissioning  of  water  &amp;  air  side  of the system (from independent agency) complete in all respects including  flow  measurement  &amp;  balancing,  temp,  pressure, electrical data of related equipment etc. as per specifications
 and as per instructions of Consultant</t>
+  </si>
+  <si>
+    <t>Fire Suppression Services</t>
+  </si>
+  <si>
+    <t>FIRE FIGHTING SERVICES</t>
+  </si>
+  <si>
+    <t>Supply,    installation,    testing    &amp;    commissioning    of    fire</t>
+  </si>
+  <si>
+    <t>suppression system  including all equipment, pipe works and</t>
+  </si>
+  <si>
+    <t>accessories ready to operate as per specifications, drawings</t>
+  </si>
+  <si>
+    <t>and instructions of consultants.</t>
+  </si>
+  <si>
+    <t>MS  Sch-40  seamless  pipes  including  all specials  fittings  UL</t>
+  </si>
+  <si>
+    <t>listed  &amp; FM  approved, threaded, welded joints,  flexible pipe,</t>
+  </si>
+  <si>
+    <t>flanges,   coupling,   masking   plates,   bends,   tees,   clamps,</t>
+  </si>
+  <si>
+    <t>supports  and  hangers,  sleeves,  masking  plates  chiseling,</t>
+  </si>
+  <si>
+    <t>cutting  holes,  making  good  where  required,  painting  and</t>
+  </si>
+  <si>
+    <t>protection treatment etc. Complete in all respects.</t>
+  </si>
+  <si>
+    <t>Dia  25 mm          (Threaded fitting)</t>
+  </si>
+  <si>
+    <t>Rm.</t>
+  </si>
+  <si>
+    <t>Dia  32 mm          (Threaded fitting)</t>
+  </si>
+  <si>
+    <t>Dia  40 mm          (Threaded fitting)</t>
+  </si>
+  <si>
+    <t>Dia  50 mm          (Threaded fitting)</t>
+  </si>
+  <si>
+    <t>Dia  65 mm          (Welded joints fitting)</t>
+  </si>
+  <si>
+    <t>Dia  100 mm        (Welded joints fitting)</t>
+  </si>
+  <si>
+    <t>Sprinkler Heads</t>
+  </si>
+  <si>
+    <t>Sprinkler  Pendent  type  (concealed  with  face  /  Cover</t>
+  </si>
+  <si>
+    <t>plate) K = 5.6 (Opening Temperature 57ºC)</t>
+  </si>
+  <si>
+    <t>Fire extinguishers with fixing accessories.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type Class B&amp;C FX-3  (6 Kg. CO2 Carbon Dioxide Gas)</t>
+    </r>
+  </si>
+  <si>
+    <t>Type Class A,B&amp;C  FX-4  (6 Kg. Dry Chemical Powder)</t>
+  </si>
+  <si>
+    <t>Automatic fire extinguisher (10 Kg. Dry Chemical Powder).</t>
+  </si>
+  <si>
+    <t>Zone Control Valve assembly 100 mm dia complete with</t>
+  </si>
+  <si>
+    <t>following. (UL Listed)</t>
+  </si>
+  <si>
+    <t>UL Listed Pressure reducing valve (PRV) 100 mm dia (01 No)</t>
+  </si>
+  <si>
+    <t>OS &amp; Y Gate valve 100 mm size (01 No)</t>
+  </si>
+  <si>
+    <t>Pressure Gauge (02 Nos)</t>
+  </si>
+  <si>
+    <t>Water flow switch 100 mm dia (01 No)</t>
+  </si>
+  <si>
+    <t>50 mm dia test valve with sight glass &amp; sectional drain valve</t>
+  </si>
+  <si>
+    <t>(01 No)</t>
+  </si>
+  <si>
+    <t>Supply  &amp;  installation  of  fire  stop  material  (for  passive  fire</t>
+  </si>
+  <si>
+    <t>fighting  /  smoke  barrier)  in  all  openings  and  penetrations,</t>
+  </si>
+  <si>
+    <t>either  in  slab  or  wall,   complete  in  all  respects,  ready  to</t>
+  </si>
+  <si>
+    <t>operate  as  per  fire  stopper  recommended  material,  and  as</t>
+  </si>
+  <si>
+    <t>per instruction of Consultant.</t>
+  </si>
+  <si>
+    <t>Making  of  As-Built  &amp;  Shop  Drawings  on  AutoCAD  2018  or</t>
+  </si>
+  <si>
+    <t>latest version with sectional details complete in all respects as</t>
+  </si>
+  <si>
+    <t>per instructions of consultant.</t>
+  </si>
+  <si>
+    <t>Painting,  identification  and  tagging  to  the  installations  and</t>
+  </si>
+  <si>
+    <t>equipments.</t>
+  </si>
+  <si>
+    <t>Flushing of entire fire pipe work according to (NFPA-13).</t>
+  </si>
+  <si>
+    <t>Testing,  and commissioning of  entire fire  fighting installation</t>
+  </si>
+  <si>
+    <t>as per Consultant’s approval.</t>
+  </si>
+  <si>
+    <t>Total Cost of FSS Rs. (INCLUDING 8% WHT TAX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESS DISCOUNT -5% </t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT AFTER DISCOUNT  (INCLUDING 8% WHT TAX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL AMOUNT EXCL. TAX 8% </t>
+  </si>
+  <si>
+    <t>LESS DISCOUNT -5%</t>
+  </si>
+  <si>
+    <t>TOTAL FINAL AMOUNT AFTER TAX AND DISCOUNT DEDUCTION</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Contractor is instructed to visit the site, understand the nature of work &amp; then fill the rates accordingly and submit the quotation. No argument and discussion will be entertained after awarding of work.</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Miscellaneous work which was not included in BOQ but necessary to complete the project in all respects and ready to operate as per instructions of Consultant. (Bidder should mentioned the type of works).</t>
   </si>
 </sst>
 </file>
@@ -554,7 +736,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -807,6 +989,304 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,7 +1294,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -980,6 +1460,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -989,21 +1583,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1025,110 +1610,287 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="21"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1439,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1462,39 +2224,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
@@ -1506,44 +2268,44 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="32" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="99" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="100"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="37" t="s">
         <v>10</v>
       </c>
@@ -1570,8 +2332,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1584,10 +2346,10 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79">
+      <c r="A8" s="59">
         <v>1</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="17" t="s">
         <v>75</v>
       </c>
@@ -1600,8 +2362,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="38" t="s">
         <v>16</v>
       </c>
@@ -1629,26 +2391,14 @@
         <f>I9+G9</f>
         <v>209000</v>
       </c>
-      <c r="L9" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M9" s="2">
-        <v>60000</v>
-      </c>
-      <c r="N9" s="104">
-        <f>M9*5%</f>
-        <v>3000</v>
-      </c>
-      <c r="O9" s="104">
-        <f>M9-N9</f>
-        <v>57000</v>
-      </c>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:15" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81">
+      <c r="A10" s="57">
         <v>1.2</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
@@ -1676,82 +2426,50 @@
         <f>I10+G10</f>
         <v>12350</v>
       </c>
-      <c r="L10" s="2">
-        <v>8000</v>
-      </c>
-      <c r="M10" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N10" s="104">
-        <f t="shared" ref="N10:N73" si="0">M10*5%</f>
-        <v>250</v>
-      </c>
-      <c r="O10" s="104">
-        <f t="shared" ref="O10:O73" si="1">M10-N10</f>
-        <v>4750</v>
-      </c>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:15" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79">
+      <c r="A11" s="59">
         <v>2</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="N11" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81">
+      <c r="A12" s="57">
         <v>2.1</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="N12" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="38" t="s">
         <v>23</v>
       </c>
@@ -1779,26 +2497,14 @@
         <f>I13+G13</f>
         <v>35150</v>
       </c>
-      <c r="L13" s="2">
-        <v>8250</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N13" s="104">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O13" s="104">
-        <f t="shared" si="1"/>
-        <v>950</v>
-      </c>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:15" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="38" t="s">
         <v>25</v>
       </c>
@@ -1826,54 +2532,32 @@
         <f>I14+G14</f>
         <v>148200</v>
       </c>
-      <c r="L14" s="2">
-        <v>17500</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N14" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O14" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:15" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81">
+      <c r="A15" s="57">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="82"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="53">
-        <v>0</v>
-      </c>
+      <c r="F15" s="53"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="53">
-        <v>0</v>
-      </c>
+      <c r="H15" s="53"/>
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
-      <c r="N15" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="73"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1901,26 +2585,14 @@
         <f>I16+G16</f>
         <v>8075</v>
       </c>
-      <c r="L16" s="2">
-        <v>7500</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N16" s="104">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O16" s="104">
-        <f t="shared" si="1"/>
-        <v>950</v>
-      </c>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:15" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="38" t="s">
         <v>25</v>
       </c>
@@ -1948,54 +2620,32 @@
         <f>I17+G17</f>
         <v>37050</v>
       </c>
-      <c r="L17" s="2">
-        <v>17500</v>
-      </c>
-      <c r="M17" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N17" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O17" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81">
+      <c r="A18" s="57">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="N18" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="38" t="s">
         <v>23</v>
       </c>
@@ -2009,40 +2659,28 @@
         <v>12825</v>
       </c>
       <c r="G19" s="41">
-        <f t="shared" ref="G19:G21" si="2">F19*E19</f>
+        <f t="shared" ref="G19:G21" si="0">F19*E19</f>
         <v>12825</v>
       </c>
       <c r="H19" s="41">
         <v>950</v>
       </c>
       <c r="I19" s="41">
-        <f t="shared" ref="I19:I21" si="3">H19*E19</f>
+        <f t="shared" ref="I19:I21" si="1">H19*E19</f>
         <v>950</v>
       </c>
       <c r="J19" s="41">
-        <f t="shared" ref="J19:J21" si="4">I19+G19</f>
+        <f t="shared" ref="J19:J21" si="2">I19+G19</f>
         <v>13775</v>
       </c>
-      <c r="L19" s="2">
-        <v>13500</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N19" s="104">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O19" s="104">
-        <f t="shared" si="1"/>
-        <v>950</v>
-      </c>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
     </row>
     <row r="20" spans="1:15" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="38" t="s">
         <v>25</v>
       </c>
@@ -2056,40 +2694,28 @@
         <v>26125</v>
       </c>
       <c r="G20" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>52250</v>
       </c>
       <c r="H20" s="41">
         <v>1900</v>
       </c>
       <c r="I20" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3800</v>
       </c>
       <c r="J20" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>56050</v>
       </c>
-      <c r="L20" s="2">
-        <v>27500</v>
-      </c>
-      <c r="M20" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N20" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O20" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
     </row>
     <row r="21" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87">
+      <c r="A21" s="74">
         <v>2.4</v>
       </c>
-      <c r="B21" s="91"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="20" t="s">
         <v>76</v>
       </c>
@@ -2103,40 +2729,28 @@
         <v>6840</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>41040</v>
       </c>
       <c r="H21" s="14">
         <v>475</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2850</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43890</v>
       </c>
-      <c r="L21" s="2">
-        <v>7200</v>
-      </c>
-      <c r="M21" s="2">
-        <v>500</v>
-      </c>
-      <c r="N21" s="104">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O21" s="104">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87">
+      <c r="A22" s="74">
         <v>2.5</v>
       </c>
-      <c r="B22" s="91"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="22" t="s">
         <v>77</v>
       </c>
@@ -2164,54 +2778,32 @@
         <f>I22+G22</f>
         <v>61560</v>
       </c>
-      <c r="L22" s="2">
-        <v>9800</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N22" s="104">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O22" s="104">
-        <f t="shared" si="1"/>
-        <v>950</v>
-      </c>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="87">
+      <c r="A23" s="74">
         <v>2.6</v>
       </c>
-      <c r="B23" s="91"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="N23" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="38" t="s">
         <v>23</v>
       </c>
@@ -2225,40 +2817,28 @@
         <v>159600</v>
       </c>
       <c r="G24" s="41">
-        <f t="shared" ref="G24:G25" si="5">F24*E24</f>
+        <f t="shared" ref="G24:G25" si="3">F24*E24</f>
         <v>159600</v>
       </c>
       <c r="H24" s="41">
         <v>1900</v>
       </c>
       <c r="I24" s="41">
-        <f t="shared" ref="I24:I25" si="6">H24*E24</f>
+        <f t="shared" ref="I24:I25" si="4">H24*E24</f>
         <v>1900</v>
       </c>
       <c r="J24" s="41">
-        <f t="shared" ref="J24:J25" si="7">I24+G24</f>
+        <f t="shared" ref="J24:J25" si="5">I24+G24</f>
         <v>161500</v>
       </c>
-      <c r="L24" s="2">
-        <v>168000</v>
-      </c>
-      <c r="M24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N24" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O24" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="73"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="38" t="s">
         <v>29</v>
       </c>
@@ -2272,40 +2852,28 @@
         <v>195700</v>
       </c>
       <c r="G25" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>391400</v>
       </c>
       <c r="H25" s="41">
         <v>1900</v>
       </c>
       <c r="I25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
       <c r="J25" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>395200</v>
       </c>
-      <c r="L25" s="2">
-        <v>206000</v>
-      </c>
-      <c r="M25" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N25" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O25" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
     </row>
     <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A26" s="89">
+      <c r="A26" s="77">
         <v>2.7</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="43" t="s">
         <v>78</v>
       </c>
@@ -2333,26 +2901,14 @@
         <f>I26+G26</f>
         <v>256500</v>
       </c>
-      <c r="L26" s="2">
-        <v>85000</v>
-      </c>
-      <c r="M26" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N26" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O26" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="A27" s="92">
+      <c r="A27" s="79">
         <v>2.8</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="54" t="s">
         <v>79</v>
       </c>
@@ -2380,26 +2936,14 @@
         <f>I27+G27</f>
         <v>456000</v>
       </c>
-      <c r="L27" s="2">
-        <v>235000</v>
-      </c>
-      <c r="M27" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N27" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O27" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" s="87">
+      <c r="A28" s="74">
         <v>2.9</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="43" t="s">
         <v>80</v>
       </c>
@@ -2427,54 +2971,32 @@
         <f>I28+G28</f>
         <v>51300</v>
       </c>
-      <c r="L28" s="2">
-        <v>10000</v>
-      </c>
-      <c r="M28" s="2">
-        <v>8000</v>
-      </c>
-      <c r="N28" s="104">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="O28" s="104">
-        <f t="shared" si="1"/>
-        <v>7600</v>
-      </c>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" spans="1:15" ht="150" x14ac:dyDescent="0.2">
-      <c r="A29" s="79">
+      <c r="A29" s="59">
         <v>3</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
+      <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="N29" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="87">
+      <c r="A30" s="74">
         <v>3.1</v>
       </c>
-      <c r="B30" s="88"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="38" t="s">
         <v>23</v>
       </c>
@@ -2488,40 +3010,28 @@
         <v>2850</v>
       </c>
       <c r="G30" s="41">
-        <f t="shared" ref="G30:G34" si="8">F30*E30</f>
+        <f t="shared" ref="G30:G34" si="6">F30*E30</f>
         <v>14250</v>
       </c>
       <c r="H30" s="41">
         <v>570</v>
       </c>
       <c r="I30" s="41">
-        <f t="shared" ref="I30:I34" si="9">H30*E30</f>
+        <f t="shared" ref="I30:I34" si="7">H30*E30</f>
         <v>2850</v>
       </c>
       <c r="J30" s="41">
-        <f t="shared" ref="J30:J34" si="10">I30+G30</f>
+        <f t="shared" ref="J30:J34" si="8">I30+G30</f>
         <v>17100</v>
       </c>
-      <c r="L30" s="2">
-        <v>3000</v>
-      </c>
-      <c r="M30" s="2">
-        <v>600</v>
-      </c>
-      <c r="N30" s="104">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O30" s="104">
-        <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="87">
+      <c r="A31" s="74">
         <v>3.2</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="38" t="s">
         <v>32</v>
       </c>
@@ -2535,40 +3045,28 @@
         <v>3990</v>
       </c>
       <c r="G31" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3990</v>
       </c>
       <c r="H31" s="41">
         <v>665</v>
       </c>
       <c r="I31" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>665</v>
       </c>
       <c r="J31" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4655</v>
       </c>
-      <c r="L31" s="2">
-        <v>4200</v>
-      </c>
-      <c r="M31" s="2">
-        <v>700</v>
-      </c>
-      <c r="N31" s="104">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O31" s="104">
-        <f t="shared" si="1"/>
-        <v>665</v>
-      </c>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="87">
+      <c r="A32" s="74">
         <v>3.3</v>
       </c>
-      <c r="B32" s="88"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="38" t="s">
         <v>29</v>
       </c>
@@ -2582,40 +3080,28 @@
         <v>4465</v>
       </c>
       <c r="G32" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4465</v>
       </c>
       <c r="H32" s="41">
         <v>760</v>
       </c>
       <c r="I32" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>760</v>
       </c>
       <c r="J32" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5225</v>
       </c>
-      <c r="L32" s="2">
-        <v>4700</v>
-      </c>
-      <c r="M32" s="2">
-        <v>800</v>
-      </c>
-      <c r="N32" s="104">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="O32" s="104">
-        <f t="shared" si="1"/>
-        <v>760</v>
-      </c>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="87">
+      <c r="A33" s="74">
         <v>3.4</v>
       </c>
-      <c r="B33" s="88"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="38" t="s">
         <v>25</v>
       </c>
@@ -2629,40 +3115,28 @@
         <v>5890</v>
       </c>
       <c r="G33" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>412300</v>
       </c>
       <c r="H33" s="41">
         <v>950</v>
       </c>
       <c r="I33" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>66500</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>478800</v>
       </c>
-      <c r="L33" s="2">
-        <v>6200</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N33" s="104">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O33" s="104">
-        <f t="shared" si="1"/>
-        <v>950</v>
-      </c>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="89">
+      <c r="A34" s="77">
         <v>3.5</v>
       </c>
-      <c r="B34" s="90"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="38" t="s">
         <v>33</v>
       </c>
@@ -2676,68 +3150,46 @@
         <v>8502.5</v>
       </c>
       <c r="G34" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>127537.5</v>
       </c>
       <c r="H34" s="41">
         <v>1140</v>
       </c>
       <c r="I34" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>17100</v>
       </c>
       <c r="J34" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>144637.5</v>
       </c>
-      <c r="L34" s="2">
-        <v>8950</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1200</v>
-      </c>
-      <c r="N34" s="104">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="O34" s="104">
-        <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="1:15" ht="105" x14ac:dyDescent="0.2">
-      <c r="A35" s="79">
+      <c r="A35" s="59">
         <v>4</v>
       </c>
-      <c r="B35" s="80"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="N35" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="87">
+      <c r="A36" s="74">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="38" t="s">
         <v>23</v>
       </c>
@@ -2751,40 +3203,28 @@
         <v>2422.5</v>
       </c>
       <c r="G36" s="41">
-        <f t="shared" ref="G36:G40" si="11">F36*E36</f>
+        <f t="shared" ref="G36:G40" si="9">F36*E36</f>
         <v>12112.5</v>
       </c>
       <c r="H36" s="41">
         <v>570</v>
       </c>
       <c r="I36" s="41">
-        <f t="shared" ref="I36:I40" si="12">H36*E36</f>
+        <f t="shared" ref="I36:I40" si="10">H36*E36</f>
         <v>2850</v>
       </c>
       <c r="J36" s="41">
-        <f t="shared" ref="J36:J40" si="13">I36+G36</f>
+        <f t="shared" ref="J36:J40" si="11">I36+G36</f>
         <v>14962.5</v>
       </c>
-      <c r="L36" s="2">
-        <v>2550</v>
-      </c>
-      <c r="M36" s="2">
-        <v>600</v>
-      </c>
-      <c r="N36" s="104">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O36" s="104">
-        <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="87">
+      <c r="A37" s="74">
         <v>4.2</v>
       </c>
-      <c r="B37" s="88"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="38" t="s">
         <v>32</v>
       </c>
@@ -2798,40 +3238,28 @@
         <v>2612.5</v>
       </c>
       <c r="G37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2612.5</v>
       </c>
       <c r="H37" s="41">
         <v>665</v>
       </c>
       <c r="I37" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>665</v>
       </c>
       <c r="J37" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3277.5</v>
       </c>
-      <c r="L37" s="2">
-        <v>2750</v>
-      </c>
-      <c r="M37" s="2">
-        <v>700</v>
-      </c>
-      <c r="N37" s="104">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O37" s="104">
-        <f t="shared" si="1"/>
-        <v>665</v>
-      </c>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="87">
+      <c r="A38" s="74">
         <v>4.3</v>
       </c>
-      <c r="B38" s="88"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="38" t="s">
         <v>29</v>
       </c>
@@ -2845,40 +3273,28 @@
         <v>2755</v>
       </c>
       <c r="G38" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2755</v>
       </c>
       <c r="H38" s="41">
         <v>760</v>
       </c>
       <c r="I38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>760</v>
       </c>
       <c r="J38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3515</v>
       </c>
-      <c r="L38" s="2">
-        <v>2900</v>
-      </c>
-      <c r="M38" s="2">
-        <v>800</v>
-      </c>
-      <c r="N38" s="104">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="O38" s="104">
-        <f t="shared" si="1"/>
-        <v>760</v>
-      </c>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="87">
+      <c r="A39" s="74">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B39" s="88"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="38" t="s">
         <v>25</v>
       </c>
@@ -2892,40 +3308,28 @@
         <v>3467.5</v>
       </c>
       <c r="G39" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>242725</v>
       </c>
       <c r="H39" s="41">
         <v>950</v>
       </c>
       <c r="I39" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>66500</v>
       </c>
       <c r="J39" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>309225</v>
       </c>
-      <c r="L39" s="2">
-        <v>3650</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N39" s="104">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O39" s="104">
-        <f t="shared" si="1"/>
-        <v>950</v>
-      </c>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="87">
+      <c r="A40" s="74">
         <v>4.5</v>
       </c>
-      <c r="B40" s="88"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="38" t="s">
         <v>35</v>
       </c>
@@ -2939,68 +3343,46 @@
         <v>4322.5</v>
       </c>
       <c r="G40" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>64837.5</v>
       </c>
       <c r="H40" s="41">
         <v>1140</v>
       </c>
       <c r="I40" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>17100</v>
       </c>
       <c r="J40" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>81937.5</v>
       </c>
-      <c r="L40" s="2">
-        <v>4550</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1200</v>
-      </c>
-      <c r="N40" s="104">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="O40" s="104">
-        <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
     </row>
     <row r="41" spans="1:15" ht="105" x14ac:dyDescent="0.2">
-      <c r="A41" s="79">
+      <c r="A41" s="59">
         <v>5</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
+      <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
+      <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="N41" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="87">
+      <c r="A42" s="74">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B42" s="88"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="38" t="s">
         <v>23</v>
       </c>
@@ -3014,40 +3396,28 @@
         <v>1567.5</v>
       </c>
       <c r="G42" s="41">
-        <f t="shared" ref="G42:G43" si="14">F42*E42</f>
+        <f t="shared" ref="G42:G43" si="12">F42*E42</f>
         <v>15675</v>
       </c>
       <c r="H42" s="41">
         <v>285</v>
       </c>
       <c r="I42" s="41">
-        <f t="shared" ref="I42:I43" si="15">H42*E42</f>
+        <f t="shared" ref="I42:I43" si="13">H42*E42</f>
         <v>2850</v>
       </c>
       <c r="J42" s="41">
-        <f t="shared" ref="J42:J43" si="16">I42+G42</f>
+        <f t="shared" ref="J42:J43" si="14">I42+G42</f>
         <v>18525</v>
       </c>
-      <c r="L42" s="2">
-        <v>1650</v>
-      </c>
-      <c r="M42" s="2">
-        <v>300</v>
-      </c>
-      <c r="N42" s="104">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O42" s="104">
-        <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="89">
+      <c r="A43" s="77">
         <v>5.2</v>
       </c>
-      <c r="B43" s="90"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="38" t="s">
         <v>32</v>
       </c>
@@ -3061,68 +3431,46 @@
         <v>2280</v>
       </c>
       <c r="G43" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>45600</v>
       </c>
       <c r="H43" s="41">
         <v>380</v>
       </c>
       <c r="I43" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>7600</v>
       </c>
       <c r="J43" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>53200</v>
       </c>
-      <c r="L43" s="2">
-        <v>2400</v>
-      </c>
-      <c r="M43" s="2">
-        <v>400</v>
-      </c>
-      <c r="N43" s="104">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="O43" s="104">
-        <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
     </row>
     <row r="44" spans="1:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="A44" s="79">
+      <c r="A44" s="59">
         <v>6</v>
       </c>
-      <c r="B44" s="80"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
+      <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
+      <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="N44" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="87">
+      <c r="A45" s="74">
         <v>6.1</v>
       </c>
-      <c r="B45" s="88"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="38" t="s">
         <v>38</v>
       </c>
@@ -3150,54 +3498,32 @@
         <f>I45+G45</f>
         <v>817000</v>
       </c>
-      <c r="L45" s="2">
-        <v>415000</v>
-      </c>
-      <c r="M45" s="2">
-        <v>15000</v>
-      </c>
-      <c r="N45" s="104">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="O45" s="104">
-        <f t="shared" si="1"/>
-        <v>14250</v>
-      </c>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
     </row>
     <row r="46" spans="1:15" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="79">
+      <c r="A46" s="59">
         <v>7</v>
       </c>
-      <c r="B46" s="80"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
+      <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
+      <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="N46" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="87">
+      <c r="A47" s="74">
         <v>7.1</v>
       </c>
-      <c r="B47" s="88"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="38" t="s">
         <v>39</v>
       </c>
@@ -3211,40 +3537,28 @@
         <v>133000</v>
       </c>
       <c r="G47" s="41">
-        <f t="shared" ref="G47:G56" si="17">F47*E47</f>
+        <f t="shared" ref="G47:G56" si="15">F47*E47</f>
         <v>266000</v>
       </c>
       <c r="H47" s="41">
         <v>4750</v>
       </c>
       <c r="I47" s="41">
-        <f t="shared" ref="I47:I56" si="18">H47*E47</f>
+        <f t="shared" ref="I47:I56" si="16">H47*E47</f>
         <v>9500</v>
       </c>
       <c r="J47" s="41">
-        <f t="shared" ref="J47:J56" si="19">I47+G47</f>
+        <f t="shared" ref="J47:J56" si="17">I47+G47</f>
         <v>275500</v>
       </c>
-      <c r="L47" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M47" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N47" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O47" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="87">
+      <c r="A48" s="74">
         <v>7.2</v>
       </c>
-      <c r="B48" s="88"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="38" t="s">
         <v>40</v>
       </c>
@@ -3258,40 +3572,28 @@
         <v>133000</v>
       </c>
       <c r="G48" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H48" s="41">
         <v>4750</v>
       </c>
       <c r="I48" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J48" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L48" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M48" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N48" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O48" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="87">
+      <c r="A49" s="74">
         <v>7.3</v>
       </c>
-      <c r="B49" s="88"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="38" t="s">
         <v>41</v>
       </c>
@@ -3305,40 +3607,28 @@
         <v>133000</v>
       </c>
       <c r="G49" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H49" s="41">
         <v>4750</v>
       </c>
       <c r="I49" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J49" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L49" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M49" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N49" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O49" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="87">
+      <c r="A50" s="74">
         <v>7.4</v>
       </c>
-      <c r="B50" s="88"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="38" t="s">
         <v>42</v>
       </c>
@@ -3352,40 +3642,28 @@
         <v>133000</v>
       </c>
       <c r="G50" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H50" s="41">
         <v>4750</v>
       </c>
       <c r="I50" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J50" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L50" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M50" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N50" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O50" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="87">
+      <c r="A51" s="74">
         <v>7.5</v>
       </c>
-      <c r="B51" s="88"/>
+      <c r="B51" s="75"/>
       <c r="C51" s="38" t="s">
         <v>43</v>
       </c>
@@ -3399,40 +3677,28 @@
         <v>133000</v>
       </c>
       <c r="G51" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H51" s="41">
         <v>4750</v>
       </c>
       <c r="I51" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J51" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L51" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M51" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N51" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O51" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="81">
+      <c r="A52" s="57">
         <v>7.6</v>
       </c>
-      <c r="B52" s="82"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="38" t="s">
         <v>44</v>
       </c>
@@ -3446,40 +3712,28 @@
         <v>133000</v>
       </c>
       <c r="G52" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>266000</v>
       </c>
       <c r="H52" s="41">
         <v>4750</v>
       </c>
       <c r="I52" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>9500</v>
       </c>
       <c r="J52" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>275500</v>
       </c>
-      <c r="L52" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M52" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N52" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O52" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="81">
+      <c r="A53" s="57">
         <v>7.7</v>
       </c>
-      <c r="B53" s="82"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="38" t="s">
         <v>45</v>
       </c>
@@ -3493,40 +3747,28 @@
         <v>133000</v>
       </c>
       <c r="G53" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H53" s="41">
         <v>4750</v>
       </c>
       <c r="I53" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J53" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L53" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M53" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N53" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O53" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="81">
+      <c r="A54" s="57">
         <v>7.8</v>
       </c>
-      <c r="B54" s="82"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="38" t="s">
         <v>46</v>
       </c>
@@ -3540,40 +3782,28 @@
         <v>133000</v>
       </c>
       <c r="G54" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H54" s="41">
         <v>4750</v>
       </c>
       <c r="I54" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J54" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L54" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M54" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N54" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O54" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="81">
+      <c r="A55" s="57">
         <v>7.9</v>
       </c>
-      <c r="B55" s="82"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="38" t="s">
         <v>47</v>
       </c>
@@ -3587,40 +3817,28 @@
         <v>133000</v>
       </c>
       <c r="G55" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H55" s="41">
         <v>4750</v>
       </c>
       <c r="I55" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J55" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L55" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M55" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N55" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O55" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="85">
+      <c r="A56" s="81">
         <v>7.1</v>
       </c>
-      <c r="B56" s="86"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="38" t="s">
         <v>48</v>
       </c>
@@ -3634,40 +3852,28 @@
         <v>133000</v>
       </c>
       <c r="G56" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>133000</v>
       </c>
       <c r="H56" s="41">
         <v>4750</v>
       </c>
       <c r="I56" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4750</v>
       </c>
       <c r="J56" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>137750</v>
       </c>
-      <c r="L56" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M56" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N56" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O56" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="77">
+      <c r="A57" s="86">
         <v>7.11</v>
       </c>
-      <c r="B57" s="78"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="38" t="s">
         <v>49</v>
       </c>
@@ -3695,54 +3901,32 @@
         <f>I57+G57</f>
         <v>137750</v>
       </c>
-      <c r="L57" s="2">
-        <v>140000</v>
-      </c>
-      <c r="M57" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N57" s="104">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="O57" s="104">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="A58" s="79">
+      <c r="A58" s="59">
         <v>8</v>
       </c>
-      <c r="B58" s="80"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="11">
-        <v>0</v>
-      </c>
+      <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
+      <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="N58" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="81">
+      <c r="A59" s="57">
         <v>8.1</v>
       </c>
-      <c r="B59" s="82"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="38" t="s">
         <v>51</v>
       </c>
@@ -3756,40 +3940,28 @@
         <v>47082</v>
       </c>
       <c r="G59" s="41">
-        <f t="shared" ref="G59:G64" si="20">F59*E59</f>
+        <f t="shared" ref="G59:G64" si="18">F59*E59</f>
         <v>94164</v>
       </c>
       <c r="H59" s="41">
         <v>1900</v>
       </c>
       <c r="I59" s="41">
-        <f t="shared" ref="I59:I64" si="21">H59*E59</f>
+        <f t="shared" ref="I59:I64" si="19">H59*E59</f>
         <v>3800</v>
       </c>
       <c r="J59" s="41">
-        <f t="shared" ref="J59:J64" si="22">I59+G59</f>
+        <f t="shared" ref="J59:J64" si="20">I59+G59</f>
         <v>97964</v>
       </c>
-      <c r="L59" s="2">
-        <v>49560</v>
-      </c>
-      <c r="M59" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N59" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O59" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="81">
+      <c r="A60" s="57">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B60" s="82"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="38" t="s">
         <v>52</v>
       </c>
@@ -3803,40 +3975,28 @@
         <v>53808</v>
       </c>
       <c r="G60" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>322848</v>
       </c>
       <c r="H60" s="41">
         <v>1900</v>
       </c>
       <c r="I60" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>11400</v>
       </c>
       <c r="J60" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>334248</v>
       </c>
-      <c r="L60" s="2">
-        <v>56640</v>
-      </c>
-      <c r="M60" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N60" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O60" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="81">
+      <c r="A61" s="57">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B61" s="82"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="38" t="s">
         <v>53</v>
       </c>
@@ -3850,40 +4010,28 @@
         <v>53808</v>
       </c>
       <c r="G61" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>322848</v>
       </c>
       <c r="H61" s="41">
         <v>1900</v>
       </c>
       <c r="I61" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>11400</v>
       </c>
       <c r="J61" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>334248</v>
       </c>
-      <c r="L61" s="2">
-        <v>56640</v>
-      </c>
-      <c r="M61" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N61" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O61" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="81">
+      <c r="A62" s="57">
         <v>8.4</v>
       </c>
-      <c r="B62" s="82"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="38" t="s">
         <v>54</v>
       </c>
@@ -3897,40 +4045,28 @@
         <v>127794</v>
       </c>
       <c r="G62" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1022352</v>
       </c>
       <c r="H62" s="41">
         <v>1900</v>
       </c>
       <c r="I62" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>15200</v>
       </c>
       <c r="J62" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1037552</v>
       </c>
-      <c r="L62" s="2">
-        <v>134520</v>
-      </c>
-      <c r="M62" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N62" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O62" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="81">
+      <c r="A63" s="57">
         <v>8.5</v>
       </c>
-      <c r="B63" s="82"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="38" t="s">
         <v>55</v>
       </c>
@@ -3944,40 +4080,28 @@
         <v>127794</v>
       </c>
       <c r="G63" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>255588</v>
       </c>
       <c r="H63" s="41">
         <v>1900</v>
       </c>
       <c r="I63" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>3800</v>
       </c>
       <c r="J63" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>259388</v>
       </c>
-      <c r="L63" s="2">
-        <v>134520</v>
-      </c>
-      <c r="M63" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N63" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O63" s="104">
-        <f t="shared" si="1"/>
-        <v>1900</v>
-      </c>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
     </row>
     <row r="64" spans="1:15" ht="135" x14ac:dyDescent="0.2">
-      <c r="A64" s="83">
+      <c r="A64" s="88">
         <v>9</v>
       </c>
-      <c r="B64" s="84"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="38" t="s">
         <v>56</v>
       </c>
@@ -3991,40 +4115,28 @@
         <v>4512.5</v>
       </c>
       <c r="G64" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>3384375</v>
       </c>
       <c r="H64" s="41">
         <v>760</v>
       </c>
       <c r="I64" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>570000</v>
       </c>
       <c r="J64" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>3954375</v>
       </c>
-      <c r="L64" s="2">
-        <v>4750</v>
-      </c>
-      <c r="M64" s="2">
-        <v>800</v>
-      </c>
-      <c r="N64" s="104">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="O64" s="104">
-        <f t="shared" si="1"/>
-        <v>760</v>
-      </c>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
     </row>
     <row r="65" spans="1:15" ht="90" x14ac:dyDescent="0.2">
-      <c r="A65" s="58">
+      <c r="A65" s="83">
         <v>10</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="84"/>
       <c r="C65" s="44" t="s">
         <v>58</v>
       </c>
@@ -4052,26 +4164,14 @@
         <f>I65+G65</f>
         <v>4580187.5</v>
       </c>
-      <c r="L65" s="2">
-        <v>6100</v>
-      </c>
-      <c r="M65" s="2">
-        <v>550</v>
-      </c>
-      <c r="N65" s="104">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="O65" s="104">
-        <f t="shared" si="1"/>
-        <v>522.5</v>
-      </c>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
     </row>
     <row r="66" spans="1:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="A66" s="58">
+      <c r="A66" s="83">
         <v>11</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="84"/>
       <c r="C66" s="43" t="s">
         <v>82</v>
       </c>
@@ -4099,82 +4199,50 @@
         <f>I66+G66</f>
         <v>296875</v>
       </c>
-      <c r="L66" s="2">
-        <v>5750</v>
-      </c>
-      <c r="M66" s="2">
-        <v>500</v>
-      </c>
-      <c r="N66" s="104">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O66" s="104">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
     </row>
     <row r="67" spans="1:15" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58">
+      <c r="A67" s="83">
         <v>12</v>
       </c>
-      <c r="B67" s="62"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="11">
-        <v>0</v>
-      </c>
+      <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
+      <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
-      <c r="N67" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
     </row>
     <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A68" s="70">
+      <c r="A68" s="90">
         <v>12.1</v>
       </c>
-      <c r="B68" s="76"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="11">
-        <v>0</v>
-      </c>
+      <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
+      <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
-      <c r="N68" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="73"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="38" t="s">
         <v>60</v>
       </c>
@@ -4188,40 +4256,28 @@
         <v>1425</v>
       </c>
       <c r="G69" s="41">
-        <f t="shared" ref="G69:G70" si="23">F69*E69</f>
+        <f t="shared" ref="G69:G70" si="21">F69*E69</f>
         <v>9975</v>
       </c>
       <c r="H69" s="41">
         <v>475</v>
       </c>
       <c r="I69" s="41">
-        <f t="shared" ref="I69:I70" si="24">H69*E69</f>
+        <f t="shared" ref="I69:I70" si="22">H69*E69</f>
         <v>3325</v>
       </c>
       <c r="J69" s="41">
-        <f t="shared" ref="J69:J70" si="25">I69+G69</f>
+        <f t="shared" ref="J69:J70" si="23">I69+G69</f>
         <v>13300</v>
       </c>
-      <c r="L69" s="2">
-        <v>1500</v>
-      </c>
-      <c r="M69" s="2">
-        <v>500</v>
-      </c>
-      <c r="N69" s="104">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O69" s="104">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="73"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="38" t="s">
         <v>61</v>
       </c>
@@ -4235,37 +4291,28 @@
         <v>4275</v>
       </c>
       <c r="G70" s="41">
+        <f t="shared" si="21"/>
+        <v>64125</v>
+      </c>
+      <c r="H70" s="41">
+        <v>0</v>
+      </c>
+      <c r="I70" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="41">
         <f t="shared" si="23"/>
         <v>64125</v>
       </c>
-      <c r="H70" s="41">
-        <v>0</v>
-      </c>
-      <c r="I70" s="41">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="41">
-        <f t="shared" si="25"/>
-        <v>64125</v>
-      </c>
-      <c r="L70" s="2">
-        <v>4500</v>
-      </c>
-      <c r="N70" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="70">
+      <c r="A71" s="90">
         <v>12.2</v>
       </c>
-      <c r="B71" s="76"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="18" t="s">
         <v>62</v>
       </c>
@@ -4280,20 +4327,14 @@
       </c>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-      <c r="N71" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="73"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="38" t="s">
         <v>63</v>
       </c>
@@ -4307,40 +4348,28 @@
         <v>4275</v>
       </c>
       <c r="G72" s="41">
-        <f t="shared" ref="G72:G74" si="26">F72*E72</f>
+        <f t="shared" ref="G72:G74" si="24">F72*E72</f>
         <v>4275</v>
       </c>
       <c r="H72" s="41">
         <v>475</v>
       </c>
       <c r="I72" s="41">
-        <f t="shared" ref="I72:I74" si="27">H72*E72</f>
+        <f t="shared" ref="I72:I74" si="25">H72*E72</f>
         <v>475</v>
       </c>
       <c r="J72" s="41">
-        <f t="shared" ref="J72:J74" si="28">I72+G72</f>
+        <f t="shared" ref="J72:J74" si="26">I72+G72</f>
         <v>4750</v>
       </c>
-      <c r="L72" s="2">
-        <v>4500</v>
-      </c>
-      <c r="M72" s="2">
-        <v>500</v>
-      </c>
-      <c r="N72" s="104">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O72" s="104">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="75"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="38" t="s">
         <v>64</v>
       </c>
@@ -4354,40 +4383,28 @@
         <v>4750</v>
       </c>
       <c r="G73" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4750</v>
       </c>
       <c r="H73" s="41">
         <v>475</v>
       </c>
       <c r="I73" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>475</v>
       </c>
       <c r="J73" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>5225</v>
       </c>
-      <c r="L73" s="2">
-        <v>5000</v>
-      </c>
-      <c r="M73" s="2">
-        <v>500</v>
-      </c>
-      <c r="N73" s="104">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O73" s="104">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="70">
+      <c r="A74" s="90">
         <v>12.3</v>
       </c>
-      <c r="B74" s="71"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="44" t="s">
         <v>65</v>
       </c>
@@ -4401,68 +4418,46 @@
         <v>2850</v>
       </c>
       <c r="G74" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>8550</v>
       </c>
       <c r="H74" s="47">
         <v>950</v>
       </c>
       <c r="I74" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2850</v>
       </c>
       <c r="J74" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>11400</v>
       </c>
-      <c r="L74" s="2">
-        <v>3000</v>
-      </c>
-      <c r="M74" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N74" s="104">
-        <f t="shared" ref="N74:N89" si="29">M74*5%</f>
-        <v>50</v>
-      </c>
-      <c r="O74" s="104">
-        <f t="shared" ref="O74:O89" si="30">M74-N74</f>
-        <v>950</v>
-      </c>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="70">
+      <c r="A75" s="90">
         <v>12.3</v>
       </c>
-      <c r="B75" s="76"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
+      <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
+      <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
-      <c r="N75" s="104">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="104">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="73"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="38" t="s">
         <v>67</v>
       </c>
@@ -4476,40 +4471,28 @@
         <v>5462.5</v>
       </c>
       <c r="G76" s="41">
-        <f t="shared" ref="G76:G77" si="31">F76*E76</f>
+        <f t="shared" ref="G76:G77" si="27">F76*E76</f>
         <v>546250</v>
       </c>
       <c r="H76" s="41">
         <v>475</v>
       </c>
       <c r="I76" s="41">
-        <f t="shared" ref="I76:I77" si="32">H76*E76</f>
+        <f t="shared" ref="I76:I77" si="28">H76*E76</f>
         <v>47500</v>
       </c>
       <c r="J76" s="41">
-        <f t="shared" ref="J76:J77" si="33">I76+G76</f>
+        <f t="shared" ref="J76:J77" si="29">I76+G76</f>
         <v>593750</v>
       </c>
-      <c r="L76" s="2">
-        <v>5750</v>
-      </c>
-      <c r="M76" s="2">
-        <v>500</v>
-      </c>
-      <c r="N76" s="104">
-        <f t="shared" si="29"/>
-        <v>25</v>
-      </c>
-      <c r="O76" s="104">
-        <f t="shared" si="30"/>
-        <v>475</v>
-      </c>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="73"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="38" t="s">
         <v>68</v>
       </c>
@@ -4523,68 +4506,46 @@
         <v>5937.5</v>
       </c>
       <c r="G77" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>89062.5</v>
       </c>
       <c r="H77" s="41">
         <v>570</v>
       </c>
       <c r="I77" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>8550</v>
       </c>
       <c r="J77" s="41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>97612.5</v>
       </c>
-      <c r="L77" s="2">
-        <v>6250</v>
-      </c>
-      <c r="M77" s="2">
-        <v>600</v>
-      </c>
-      <c r="N77" s="104">
-        <f t="shared" si="29"/>
-        <v>30</v>
-      </c>
-      <c r="O77" s="104">
-        <f t="shared" si="30"/>
-        <v>570</v>
-      </c>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
     </row>
     <row r="78" spans="1:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="A78" s="58">
+      <c r="A78" s="83">
         <v>13</v>
       </c>
-      <c r="B78" s="62"/>
+      <c r="B78" s="85"/>
       <c r="C78" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="11">
-        <v>0</v>
-      </c>
+      <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
+      <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
-      <c r="N78" s="104">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="104">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="70">
+      <c r="A79" s="90">
         <v>13.1</v>
       </c>
-      <c r="B79" s="71"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="38" t="s">
         <v>70</v>
       </c>
@@ -4612,54 +4573,32 @@
         <f>I79+G79</f>
         <v>57475</v>
       </c>
-      <c r="L79" s="2">
-        <v>450</v>
-      </c>
-      <c r="M79" s="2">
-        <v>100</v>
-      </c>
-      <c r="N79" s="104">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="O79" s="104">
-        <f t="shared" si="30"/>
-        <v>95</v>
-      </c>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
     </row>
     <row r="80" spans="1:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="A80" s="58">
+      <c r="A80" s="83">
         <v>14</v>
       </c>
-      <c r="B80" s="62"/>
+      <c r="B80" s="85"/>
       <c r="C80" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="11">
-        <v>0</v>
-      </c>
+      <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
+      <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
-      <c r="N80" s="104">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O80" s="104">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="70">
+      <c r="A81" s="90">
         <v>14.1</v>
       </c>
-      <c r="B81" s="71"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="38" t="s">
         <v>70</v>
       </c>
@@ -4687,26 +4626,14 @@
         <f>I81+G81</f>
         <v>260680</v>
       </c>
-      <c r="L81" s="2">
-        <v>2450</v>
-      </c>
-      <c r="M81" s="2">
-        <v>350</v>
-      </c>
-      <c r="N81" s="104">
-        <f t="shared" si="29"/>
-        <v>17.5</v>
-      </c>
-      <c r="O81" s="104">
-        <f t="shared" si="30"/>
-        <v>332.5</v>
-      </c>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
     </row>
     <row r="82" spans="1:15" ht="90" x14ac:dyDescent="0.2">
-      <c r="A82" s="58">
+      <c r="A82" s="83">
         <v>15</v>
       </c>
-      <c r="B82" s="59"/>
+      <c r="B82" s="84"/>
       <c r="C82" s="43" t="s">
         <v>83</v>
       </c>
@@ -4734,26 +4661,14 @@
         <f>I82+G82</f>
         <v>17100</v>
       </c>
-      <c r="L82" s="2">
-        <v>5000</v>
-      </c>
-      <c r="M82" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N82" s="104">
-        <f t="shared" si="29"/>
-        <v>50</v>
-      </c>
-      <c r="O82" s="104">
-        <f t="shared" si="30"/>
-        <v>950</v>
-      </c>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
     </row>
     <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="A83" s="60">
+      <c r="A83" s="96">
         <v>16</v>
       </c>
-      <c r="B83" s="61"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="43" t="s">
         <v>84</v>
       </c>
@@ -4781,26 +4696,14 @@
         <f>I83+G83</f>
         <v>6175</v>
       </c>
-      <c r="L83" s="2">
-        <v>5500</v>
-      </c>
-      <c r="M83" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N83" s="104">
-        <f t="shared" si="29"/>
-        <v>50</v>
-      </c>
-      <c r="O83" s="104">
-        <f t="shared" si="30"/>
-        <v>950</v>
-      </c>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
     </row>
     <row r="84" spans="1:15" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="58">
+      <c r="A84" s="83">
         <v>17</v>
       </c>
-      <c r="B84" s="62"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="12" t="s">
         <v>72</v>
       </c>
@@ -4828,24 +4731,12 @@
         <f>I84+G84</f>
         <v>2280000</v>
       </c>
-      <c r="L84" s="2">
-        <v>2250000</v>
-      </c>
-      <c r="M84" s="2">
-        <v>150000</v>
-      </c>
-      <c r="N84" s="104">
-        <f t="shared" si="29"/>
-        <v>7500</v>
-      </c>
-      <c r="O84" s="104">
-        <f t="shared" si="30"/>
-        <v>142500</v>
-      </c>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
     </row>
     <row r="85" spans="1:15" ht="105" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
-      <c r="B85" s="64"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="22" t="s">
         <v>85</v>
       </c>
@@ -4859,40 +4750,28 @@
         <v>617500</v>
       </c>
       <c r="G85" s="14">
-        <f t="shared" ref="G85:G89" si="34">F85*E85</f>
+        <f t="shared" ref="G85:G89" si="30">F85*E85</f>
         <v>617500</v>
       </c>
       <c r="H85" s="14">
         <v>47500</v>
       </c>
       <c r="I85" s="14">
-        <f t="shared" ref="I85:I89" si="35">H85*E85</f>
+        <f t="shared" ref="I85:I89" si="31">H85*E85</f>
         <v>47500</v>
       </c>
       <c r="J85" s="14">
-        <f t="shared" ref="J85:J89" si="36">I85+G85</f>
+        <f t="shared" ref="J85:J89" si="32">I85+G85</f>
         <v>665000</v>
       </c>
-      <c r="L85" s="2">
-        <v>650000</v>
-      </c>
-      <c r="M85" s="2">
-        <v>50000</v>
-      </c>
-      <c r="N85" s="104">
-        <f t="shared" si="29"/>
-        <v>2500</v>
-      </c>
-      <c r="O85" s="104">
-        <f t="shared" si="30"/>
-        <v>47500</v>
-      </c>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
     </row>
     <row r="86" spans="1:15" ht="90" x14ac:dyDescent="0.2">
-      <c r="A86" s="60">
+      <c r="A86" s="96">
         <v>18</v>
       </c>
-      <c r="B86" s="65"/>
+      <c r="B86" s="100"/>
       <c r="C86" s="48" t="s">
         <v>86</v>
       </c>
@@ -4906,40 +4785,28 @@
         <v>118750</v>
       </c>
       <c r="G86" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>237500</v>
       </c>
       <c r="H86" s="51">
         <v>38000</v>
       </c>
       <c r="I86" s="51">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>76000</v>
       </c>
       <c r="J86" s="51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>313500</v>
       </c>
-      <c r="L86" s="2">
-        <v>125000</v>
-      </c>
-      <c r="M86" s="2">
-        <v>40000</v>
-      </c>
-      <c r="N86" s="104">
-        <f t="shared" si="29"/>
-        <v>2000</v>
-      </c>
-      <c r="O86" s="104">
-        <f t="shared" si="30"/>
-        <v>38000</v>
-      </c>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
     </row>
     <row r="87" spans="1:15" ht="105" x14ac:dyDescent="0.2">
-      <c r="A87" s="58">
+      <c r="A87" s="83">
         <v>19</v>
       </c>
-      <c r="B87" s="62"/>
+      <c r="B87" s="85"/>
       <c r="C87" s="12" t="s">
         <v>91</v>
       </c>
@@ -4953,40 +4820,28 @@
         <v>0</v>
       </c>
       <c r="G87" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H87" s="14">
         <v>95000</v>
       </c>
       <c r="I87" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>95000</v>
       </c>
       <c r="J87" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>95000</v>
       </c>
-      <c r="L87" s="2">
-        <v>0</v>
-      </c>
-      <c r="M87" s="2">
-        <v>100000</v>
-      </c>
-      <c r="N87" s="104">
-        <f t="shared" si="29"/>
-        <v>5000</v>
-      </c>
-      <c r="O87" s="104">
-        <f t="shared" si="30"/>
-        <v>95000</v>
-      </c>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
     </row>
     <row r="88" spans="1:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="A88" s="58">
+      <c r="A88" s="83">
         <v>20</v>
       </c>
-      <c r="B88" s="62"/>
+      <c r="B88" s="85"/>
       <c r="C88" s="8" t="s">
         <v>87</v>
       </c>
@@ -5000,40 +4855,28 @@
         <v>23750</v>
       </c>
       <c r="G88" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>23750</v>
       </c>
       <c r="H88" s="14">
         <v>23750</v>
       </c>
       <c r="I88" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>23750</v>
       </c>
       <c r="J88" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>47500</v>
       </c>
-      <c r="L88" s="2">
-        <v>25000</v>
-      </c>
-      <c r="M88" s="2">
-        <v>25000</v>
-      </c>
-      <c r="N88" s="104">
-        <f t="shared" si="29"/>
-        <v>1250</v>
-      </c>
-      <c r="O88" s="104">
-        <f t="shared" si="30"/>
-        <v>23750</v>
-      </c>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
     </row>
     <row r="89" spans="1:15" ht="105" x14ac:dyDescent="0.2">
-      <c r="A89" s="66">
+      <c r="A89" s="101">
         <v>21</v>
       </c>
-      <c r="B89" s="67"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="12" t="s">
         <v>90</v>
       </c>
@@ -5047,38 +4890,26 @@
         <v>9500</v>
       </c>
       <c r="G89" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>9500</v>
       </c>
       <c r="H89" s="14">
         <v>14250</v>
       </c>
       <c r="I89" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>14250</v>
       </c>
       <c r="J89" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>23750</v>
       </c>
-      <c r="L89" s="2">
-        <v>10000</v>
-      </c>
-      <c r="M89" s="2">
-        <v>15000</v>
-      </c>
-      <c r="N89" s="104">
-        <f t="shared" si="29"/>
-        <v>750</v>
-      </c>
-      <c r="O89" s="104">
-        <f t="shared" si="30"/>
-        <v>14250</v>
-      </c>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
     </row>
     <row r="90" spans="1:15" s="29" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
-      <c r="B90" s="69"/>
+      <c r="A90" s="103"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="28" t="s">
         <v>73</v>
       </c>
@@ -5100,150 +4931,63 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="93"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
     </row>
     <row r="94" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
+      <c r="B94" s="94"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="94"/>
+      <c r="G94" s="94"/>
+      <c r="H94" s="94"/>
+      <c r="I94" s="94"/>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J95" s="103">
-        <f>J90*5%</f>
-        <v>1056979.5</v>
-      </c>
+      <c r="J95" s="55"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J96" s="103">
-        <f>J90-J95</f>
-        <v>20082610.5</v>
-      </c>
+      <c r="J96" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A91:J91"/>
     <mergeCell ref="B93:J93"/>
     <mergeCell ref="B94:I94"/>
@@ -5260,6 +5004,87 @@
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5273,4 +5098,1297 @@
     <brk id="73" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6829FC-0B36-45A1-804D-4AF8AF6C3AE8}">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="198" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="198" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="9.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:10" s="32" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="95"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="113"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="120"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="120"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="120"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="122">
+        <v>1</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="120"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="120"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="120"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="120"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="127"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="129"/>
+      <c r="B18" s="130">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="132">
+        <v>200</v>
+      </c>
+      <c r="F18" s="41">
+        <v>2550</v>
+      </c>
+      <c r="G18" s="133">
+        <f>F18*E18</f>
+        <v>510000</v>
+      </c>
+      <c r="H18" s="41">
+        <v>500</v>
+      </c>
+      <c r="I18" s="133">
+        <f>H18*E18</f>
+        <v>100000</v>
+      </c>
+      <c r="J18" s="41">
+        <f>I18+G18</f>
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="129"/>
+      <c r="B19" s="130">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="132">
+        <v>20</v>
+      </c>
+      <c r="F19" s="41">
+        <v>3150</v>
+      </c>
+      <c r="G19" s="133">
+        <f t="shared" ref="G19:G23" si="0">F19*E19</f>
+        <v>63000</v>
+      </c>
+      <c r="H19" s="41">
+        <v>600</v>
+      </c>
+      <c r="I19" s="133">
+        <f t="shared" ref="I19:I23" si="1">H19*E19</f>
+        <v>12000</v>
+      </c>
+      <c r="J19" s="41">
+        <f t="shared" ref="J19:J23" si="2">I19+G19</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="129"/>
+      <c r="B20" s="130">
+        <v>1.3</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="132">
+        <v>14</v>
+      </c>
+      <c r="F20" s="41">
+        <v>3750</v>
+      </c>
+      <c r="G20" s="133">
+        <f t="shared" si="0"/>
+        <v>52500</v>
+      </c>
+      <c r="H20" s="41">
+        <v>700</v>
+      </c>
+      <c r="I20" s="133">
+        <f t="shared" si="1"/>
+        <v>9800</v>
+      </c>
+      <c r="J20" s="41">
+        <f t="shared" si="2"/>
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="129"/>
+      <c r="B21" s="130">
+        <v>1.4</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="132">
+        <v>32</v>
+      </c>
+      <c r="F21" s="41">
+        <v>4950</v>
+      </c>
+      <c r="G21" s="133">
+        <f t="shared" si="0"/>
+        <v>158400</v>
+      </c>
+      <c r="H21" s="41">
+        <v>850</v>
+      </c>
+      <c r="I21" s="133">
+        <f t="shared" si="1"/>
+        <v>27200</v>
+      </c>
+      <c r="J21" s="41">
+        <f t="shared" si="2"/>
+        <v>185600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="129"/>
+      <c r="B22" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="131" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="132">
+        <v>56</v>
+      </c>
+      <c r="F22" s="41">
+        <v>7380</v>
+      </c>
+      <c r="G22" s="133">
+        <f t="shared" si="0"/>
+        <v>413280</v>
+      </c>
+      <c r="H22" s="41">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="133">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+      <c r="J22" s="41">
+        <f t="shared" si="2"/>
+        <v>469280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="129"/>
+      <c r="B23" s="130">
+        <v>1.6</v>
+      </c>
+      <c r="C23" s="134" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="136">
+        <v>30</v>
+      </c>
+      <c r="F23" s="137">
+        <v>16500</v>
+      </c>
+      <c r="G23" s="138">
+        <f t="shared" si="0"/>
+        <v>495000</v>
+      </c>
+      <c r="H23" s="137">
+        <v>1500</v>
+      </c>
+      <c r="I23" s="138">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="J23" s="137">
+        <f t="shared" si="2"/>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="122">
+        <v>2</v>
+      </c>
+      <c r="B24" s="123"/>
+      <c r="C24" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="137"/>
+    </row>
+    <row r="25" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="129"/>
+      <c r="B25" s="139">
+        <v>2.1</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="140"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="143">
+        <v>86</v>
+      </c>
+      <c r="F26" s="140">
+        <v>8250</v>
+      </c>
+      <c r="G26" s="144">
+        <f t="shared" ref="G26" si="3">F26*E26</f>
+        <v>709500</v>
+      </c>
+      <c r="H26" s="140">
+        <v>750</v>
+      </c>
+      <c r="I26" s="144">
+        <f t="shared" ref="I26" si="4">H26*E26</f>
+        <v>64500</v>
+      </c>
+      <c r="J26" s="145">
+        <f t="shared" ref="J26" si="5">I26+G26</f>
+        <v>774000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="122">
+        <v>3</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="129"/>
+      <c r="B28" s="139">
+        <v>3.1</v>
+      </c>
+      <c r="C28" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="143">
+        <v>2</v>
+      </c>
+      <c r="F28" s="140">
+        <v>27000</v>
+      </c>
+      <c r="G28" s="144">
+        <f t="shared" ref="G28:G30" si="6">F28*E28</f>
+        <v>54000</v>
+      </c>
+      <c r="H28" s="140">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="144">
+        <f t="shared" ref="I28:I30" si="7">H28*E28</f>
+        <v>2000</v>
+      </c>
+      <c r="J28" s="145">
+        <f t="shared" ref="J28:J30" si="8">I28+G28</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="129"/>
+      <c r="B29" s="139">
+        <v>3.2</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="143">
+        <v>2</v>
+      </c>
+      <c r="F29" s="145">
+        <v>14500</v>
+      </c>
+      <c r="G29" s="144">
+        <f t="shared" si="6"/>
+        <v>29000</v>
+      </c>
+      <c r="H29" s="145">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="144">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="J29" s="145">
+        <f t="shared" si="8"/>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="149"/>
+      <c r="B30" s="150">
+        <v>3.3</v>
+      </c>
+      <c r="C30" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="151">
+        <v>1</v>
+      </c>
+      <c r="F30" s="47">
+        <v>35000</v>
+      </c>
+      <c r="G30" s="152">
+        <f t="shared" si="6"/>
+        <v>35000</v>
+      </c>
+      <c r="H30" s="47">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="152">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="J30" s="47">
+        <f t="shared" si="8"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="122">
+        <v>4</v>
+      </c>
+      <c r="B31" s="123"/>
+      <c r="C31" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="140"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="153" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="140"/>
+    </row>
+    <row r="33" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="129"/>
+      <c r="B33" s="139">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C33" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="140"/>
+    </row>
+    <row r="34" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="129"/>
+      <c r="B34" s="139">
+        <v>4.2</v>
+      </c>
+      <c r="C34" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="143">
+        <v>1</v>
+      </c>
+      <c r="F34" s="140">
+        <v>892000</v>
+      </c>
+      <c r="G34" s="144">
+        <f t="shared" ref="G34" si="9">F34*E34</f>
+        <v>892000</v>
+      </c>
+      <c r="H34" s="140">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="144">
+        <f t="shared" ref="I34" si="10">H34*E34</f>
+        <v>10000</v>
+      </c>
+      <c r="J34" s="145">
+        <f t="shared" ref="J34" si="11">I34+G34</f>
+        <v>902000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="129"/>
+      <c r="B35" s="139">
+        <v>4.3</v>
+      </c>
+      <c r="C35" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="118"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="140"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="129"/>
+      <c r="B36" s="139">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C36" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="118"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="140"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="129"/>
+      <c r="B37" s="139">
+        <v>4.5</v>
+      </c>
+      <c r="C37" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="118"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="140"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="118"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="140"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="122">
+        <v>5</v>
+      </c>
+      <c r="B39" s="123"/>
+      <c r="C39" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="154"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="118"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="140"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="140"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="118"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="140"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="151">
+        <v>1</v>
+      </c>
+      <c r="F43" s="156">
+        <v>35000</v>
+      </c>
+      <c r="G43" s="152">
+        <f t="shared" ref="G43" si="12">F43*E43</f>
+        <v>35000</v>
+      </c>
+      <c r="H43" s="156">
+        <v>15000</v>
+      </c>
+      <c r="I43" s="152">
+        <f t="shared" ref="I43" si="13">H43*E43</f>
+        <v>15000</v>
+      </c>
+      <c r="J43" s="47">
+        <f t="shared" ref="J43" si="14">I43+G43</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="122">
+        <v>6</v>
+      </c>
+      <c r="B44" s="123"/>
+      <c r="C44" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="154"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="118"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="140"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="143">
+        <v>1</v>
+      </c>
+      <c r="F46" s="140">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="144">
+        <f t="shared" ref="G46" si="15">F46*E46</f>
+        <v>10000</v>
+      </c>
+      <c r="H46" s="140">
+        <v>10000</v>
+      </c>
+      <c r="I46" s="144">
+        <f t="shared" ref="I46" si="16">H46*E46</f>
+        <v>10000</v>
+      </c>
+      <c r="J46" s="145">
+        <f t="shared" ref="J46" si="17">I46+G46</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="122">
+        <v>7</v>
+      </c>
+      <c r="B47" s="123"/>
+      <c r="C47" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="111"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="154"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="151">
+        <v>1</v>
+      </c>
+      <c r="F48" s="156">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="152">
+        <f t="shared" ref="G48:G49" si="18">F48*E48</f>
+        <v>40000</v>
+      </c>
+      <c r="H48" s="156">
+        <v>30000</v>
+      </c>
+      <c r="I48" s="152">
+        <f t="shared" ref="I48:I49" si="19">H48*E48</f>
+        <v>30000</v>
+      </c>
+      <c r="J48" s="47">
+        <f t="shared" ref="J48:J49" si="20">I48+G48</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="122">
+        <v>8</v>
+      </c>
+      <c r="B49" s="157"/>
+      <c r="C49" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="136">
+        <v>1</v>
+      </c>
+      <c r="F49" s="137">
+        <v>0</v>
+      </c>
+      <c r="G49" s="138">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="137">
+        <v>30000</v>
+      </c>
+      <c r="I49" s="138">
+        <f t="shared" si="19"/>
+        <v>30000</v>
+      </c>
+      <c r="J49" s="137">
+        <f t="shared" si="20"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="122">
+        <v>9</v>
+      </c>
+      <c r="B50" s="123"/>
+      <c r="C50" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="111"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="154"/>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="143">
+        <v>1</v>
+      </c>
+      <c r="F51" s="140">
+        <v>0</v>
+      </c>
+      <c r="G51" s="144">
+        <f t="shared" ref="G51" si="21">F51*E51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="140">
+        <v>30000</v>
+      </c>
+      <c r="I51" s="144">
+        <f t="shared" ref="I51" si="22">H51*E51</f>
+        <v>30000</v>
+      </c>
+      <c r="J51" s="145">
+        <f t="shared" ref="J51" si="23">I51+G51</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="162"/>
+      <c r="G52" s="163">
+        <f>SUM(G9:G51)</f>
+        <v>3496680</v>
+      </c>
+      <c r="H52" s="162"/>
+      <c r="I52" s="163">
+        <f>SUM(I9:I51)</f>
+        <v>444500</v>
+      </c>
+      <c r="J52" s="164">
+        <f>SUM(J9:J51)</f>
+        <v>3941180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="165"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="168"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="169">
+        <f>+G52*-5%</f>
+        <v>-174834</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="169">
+        <f>+I52*-5%</f>
+        <v>-22225</v>
+      </c>
+      <c r="J53" s="170">
+        <f>+J52*-5%</f>
+        <v>-197059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="171"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="174"/>
+      <c r="E54" s="174"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="176">
+        <f>+G52+G53</f>
+        <v>3321846</v>
+      </c>
+      <c r="H54" s="175"/>
+      <c r="I54" s="176">
+        <f>+I52+I53</f>
+        <v>422275</v>
+      </c>
+      <c r="J54" s="177">
+        <f>+J52+J53</f>
+        <v>3744121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="178"/>
+      <c r="B55" s="178"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="178"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="178"/>
+    </row>
+    <row r="56" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
+      <c r="C56" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="182"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="183"/>
+      <c r="I56" s="184"/>
+      <c r="J56" s="185">
+        <v>3625885.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="186"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="187" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="189">
+        <v>-181294.28000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="190"/>
+      <c r="B58" s="191"/>
+      <c r="C58" s="192" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="193"/>
+      <c r="E58" s="193"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="196">
+        <v>3444591.3200000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="116"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="188"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="188"/>
+      <c r="J59" s="188"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+    </row>
+    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="9" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>